--- a/models/test/error.xlsx
+++ b/models/test/error.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="cust_infeas" sheetId="1" r:id="rId1"/>
-    <sheet name="mat_infeas" sheetId="2" r:id="rId2"/>
-    <sheet name="truck_infeas" sheetId="3" r:id="rId3"/>
+    <sheet name="feas_cust" sheetId="1" r:id="rId1"/>
+    <sheet name="feas_custmat" sheetId="2" r:id="rId2"/>
+    <sheet name="feas_custtruck" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>cust</t>
   </si>
@@ -42,6 +42,12 @@
     <t>feas</t>
   </si>
   <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
     <t>mat</t>
   </si>
   <si>
@@ -54,6 +60,60 @@
     <t>feas_qty</t>
   </si>
   <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>m11</t>
+  </si>
+  <si>
+    <t>m12</t>
+  </si>
+  <si>
+    <t>m13</t>
+  </si>
+  <si>
+    <t>m14</t>
+  </si>
+  <si>
+    <t>m15</t>
+  </si>
+  <si>
+    <t>m16</t>
+  </si>
+  <si>
+    <t>m17</t>
+  </si>
+  <si>
+    <t>m18</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
+    <t>m7</t>
+  </si>
+  <si>
+    <t>m8</t>
+  </si>
+  <si>
+    <t>m9</t>
+  </si>
+  <si>
     <t>truck</t>
   </si>
   <si>
@@ -94,6 +154,12 @@
   </si>
   <si>
     <t>feas_trans_cost</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
   </si>
 </sst>
 </file>
@@ -451,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,6 +549,58 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>56000</v>
+      </c>
+      <c r="D2">
+        <v>65.27759740259741</v>
+      </c>
+      <c r="E2">
+        <v>11535</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -490,7 +608,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -501,16 +619,628 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>100000</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>100000</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>100000</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>100000</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>100000</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>100000</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>100000</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>100000</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>100000</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>100000</v>
+      </c>
+      <c r="D19">
+        <v>2160</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +1250,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -531,40 +1261,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -573,16 +1303,134 @@
         <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>120000</v>
+      </c>
+      <c r="G2">
+        <v>10000</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>52402.05627705628</v>
+      </c>
+      <c r="K2">
+        <v>890700000</v>
+      </c>
+      <c r="L2">
+        <v>511932000</v>
+      </c>
+      <c r="M2">
+        <v>51193200</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>120000</v>
+      </c>
+      <c r="G3">
+        <v>10000</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>52402.05627705628</v>
+      </c>
+      <c r="K3">
+        <v>890700000</v>
+      </c>
+      <c r="L3">
+        <v>511932000</v>
+      </c>
+      <c r="M3">
+        <v>51193200</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/models/test/error.xlsx
+++ b/models/test/error.xlsx
@@ -7,16 +7,35 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="feas_cust" sheetId="1" r:id="rId1"/>
-    <sheet name="feas_custmat" sheetId="2" r:id="rId2"/>
-    <sheet name="feas_custtruck" sheetId="3" r:id="rId3"/>
+    <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="feas_cust" sheetId="2" r:id="rId2"/>
+    <sheet name="feas_custmat" sheetId="3" r:id="rId3"/>
+    <sheet name="feas_custtruck" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>input.xlsx</t>
+  </si>
+  <si>
+    <t>upload_time</t>
+  </si>
+  <si>
+    <t>2019-06-25 17:26:13</t>
+  </si>
+  <si>
+    <t>upload_ip</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
   <si>
     <t>cust</t>
   </si>
@@ -517,88 +536,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2">
-        <v>56000</v>
-      </c>
-      <c r="D2">
-        <v>65.27759740259741</v>
-      </c>
-      <c r="E2">
-        <v>11535</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -607,6 +572,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>56000</v>
+      </c>
+      <c r="D2">
+        <v>65.27759740259741</v>
+      </c>
+      <c r="E2">
+        <v>11535</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -616,27 +672,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>100000</v>
@@ -650,10 +706,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>100000</v>
@@ -667,10 +723,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>100000</v>
@@ -684,10 +740,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>100000</v>
@@ -701,10 +757,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>100000</v>
@@ -718,10 +774,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>100000</v>
@@ -735,10 +791,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>100000</v>
@@ -752,10 +808,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>100000</v>
@@ -769,10 +825,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>100000</v>
@@ -786,10 +842,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>100000</v>
@@ -803,10 +859,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>100000</v>
@@ -820,10 +876,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>100000</v>
@@ -837,10 +893,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>100000</v>
@@ -854,10 +910,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>100000</v>
@@ -871,10 +927,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>100000</v>
@@ -888,10 +944,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>100000</v>
@@ -905,10 +961,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>100000</v>
@@ -922,10 +978,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>100000</v>
@@ -939,10 +995,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -956,10 +1012,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -973,10 +1029,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -990,10 +1046,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1007,10 +1063,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1024,10 +1080,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1041,10 +1097,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1058,10 +1114,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1075,10 +1131,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1092,10 +1148,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1109,10 +1165,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1126,10 +1182,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1143,10 +1199,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1160,10 +1216,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1177,10 +1233,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1194,10 +1250,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1211,10 +1267,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1228,10 +1284,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1248,7 +1304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -1258,69 +1314,69 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>95</v>
@@ -1376,10 +1432,10 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>95</v>
